--- a/Graphs/liqudi_heat_sweep_results.xlsx
+++ b/Graphs/liqudi_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="189" uniqueCount="135">
   <si>
     <t>Lh2 Feed pressure (bar)_ 1</t>
   </si>
@@ -175,6 +175,249 @@
   </si>
   <si>
     <t>LH2 consumed(kg)_18</t>
+  </si>
+  <si>
+    <t>Liquid heat transfer coefficient (W/K m^2)_1</t>
+  </si>
+  <si>
+    <t>Liquid heat transfer coefficient (W/K m^2)_2</t>
+  </si>
+  <si>
+    <t>Liquid heat transfer coefficient (W/K m^2)_3</t>
+  </si>
+  <si>
+    <t>Liquid heat transfer coefficient (W/K m^2)_4</t>
+  </si>
+  <si>
+    <t>Liquid heat transfer coefficient (W/K m^2)_5</t>
+  </si>
+  <si>
+    <t>Liquid heat transfer coefficient (W/K m^2)_6</t>
+  </si>
+  <si>
+    <t>Liquid heat transfer coefficient (W/K m^2)_7</t>
+  </si>
+  <si>
+    <t>Liquid heat transfer coefficient (W/K m^2)_8</t>
+  </si>
+  <si>
+    <t>Liquid heat transfer coefficient (W/K m^2)_9</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_9</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_9</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_9</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_9</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_1</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_2</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_3</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_4</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_5</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_6</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_7</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_8</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_9</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_1</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_2</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_3</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_4</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_5</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_6</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_7</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_8</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_9</t>
   </si>
 </sst>
 </file>
@@ -220,394 +463,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:CC2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="true"/>
-    <col min="2" max="2" width="24.28515625" customWidth="true"/>
-    <col min="3" max="3" width="24.28515625" customWidth="true"/>
-    <col min="4" max="4" width="24.28515625" customWidth="true"/>
-    <col min="5" max="5" width="24.28515625" customWidth="true"/>
-    <col min="6" max="6" width="24.28515625" customWidth="true"/>
-    <col min="7" max="7" width="24.28515625" customWidth="true"/>
-    <col min="8" max="8" width="24.28515625" customWidth="true"/>
-    <col min="9" max="9" width="24.28515625" customWidth="true"/>
-    <col min="10" max="10" width="24.85546875" customWidth="true"/>
-    <col min="11" max="11" width="24.85546875" customWidth="true"/>
-    <col min="12" max="12" width="24.85546875" customWidth="true"/>
-    <col min="13" max="13" width="24.85546875" customWidth="true"/>
-    <col min="14" max="14" width="24.85546875" customWidth="true"/>
-    <col min="15" max="15" width="24.85546875" customWidth="true"/>
-    <col min="16" max="16" width="24.85546875" customWidth="true"/>
-    <col min="17" max="17" width="24.85546875" customWidth="true"/>
-    <col min="18" max="18" width="24.85546875" customWidth="true"/>
-    <col min="19" max="19" width="34.7109375" customWidth="true"/>
-    <col min="20" max="20" width="34.7109375" customWidth="true"/>
-    <col min="21" max="21" width="34.7109375" customWidth="true"/>
-    <col min="22" max="22" width="34.7109375" customWidth="true"/>
-    <col min="23" max="23" width="34.7109375" customWidth="true"/>
-    <col min="24" max="24" width="34.7109375" customWidth="true"/>
-    <col min="25" max="25" width="34.7109375" customWidth="true"/>
-    <col min="26" max="26" width="34.7109375" customWidth="true"/>
-    <col min="27" max="27" width="34.7109375" customWidth="true"/>
-    <col min="28" max="28" width="35.28515625" customWidth="true"/>
-    <col min="29" max="29" width="35.28515625" customWidth="true"/>
-    <col min="30" max="30" width="35.28515625" customWidth="true"/>
-    <col min="31" max="31" width="35.28515625" customWidth="true"/>
-    <col min="32" max="32" width="35.28515625" customWidth="true"/>
-    <col min="33" max="33" width="35.28515625" customWidth="true"/>
-    <col min="34" max="34" width="35.28515625" customWidth="true"/>
-    <col min="35" max="35" width="35.28515625" customWidth="true"/>
-    <col min="36" max="36" width="35.28515625" customWidth="true"/>
-    <col min="37" max="37" width="19.7109375" customWidth="true"/>
-    <col min="38" max="38" width="19.7109375" customWidth="true"/>
-    <col min="39" max="39" width="19.7109375" customWidth="true"/>
-    <col min="40" max="40" width="19.7109375" customWidth="true"/>
-    <col min="41" max="41" width="19.7109375" customWidth="true"/>
-    <col min="42" max="42" width="19.7109375" customWidth="true"/>
-    <col min="43" max="43" width="19.7109375" customWidth="true"/>
-    <col min="44" max="44" width="19.7109375" customWidth="true"/>
-    <col min="45" max="45" width="19.7109375" customWidth="true"/>
-    <col min="46" max="46" width="20.28515625" customWidth="true"/>
-    <col min="47" max="47" width="20.28515625" customWidth="true"/>
-    <col min="48" max="48" width="20.28515625" customWidth="true"/>
-    <col min="49" max="49" width="20.28515625" customWidth="true"/>
-    <col min="50" max="50" width="20.28515625" customWidth="true"/>
-    <col min="51" max="51" width="20.28515625" customWidth="true"/>
-    <col min="52" max="52" width="20.28515625" customWidth="true"/>
-    <col min="53" max="53" width="20.28515625" customWidth="true"/>
-    <col min="54" max="54" width="20.28515625" customWidth="true"/>
+    <col min="1" max="1" width="40.28515625" customWidth="true"/>
+    <col min="2" max="2" width="40.28515625" customWidth="true"/>
+    <col min="3" max="3" width="40.28515625" customWidth="true"/>
+    <col min="4" max="4" width="40.28515625" customWidth="true"/>
+    <col min="5" max="5" width="40.28515625" customWidth="true"/>
+    <col min="6" max="6" width="40.28515625" customWidth="true"/>
+    <col min="7" max="7" width="40.28515625" customWidth="true"/>
+    <col min="8" max="8" width="40.28515625" customWidth="true"/>
+    <col min="9" max="9" width="40.28515625" customWidth="true"/>
+    <col min="10" max="10" width="35.28515625" customWidth="true"/>
+    <col min="11" max="11" width="35.28515625" customWidth="true"/>
+    <col min="12" max="12" width="35.28515625" customWidth="true"/>
+    <col min="13" max="13" width="35.28515625" customWidth="true"/>
+    <col min="14" max="14" width="35.28515625" customWidth="true"/>
+    <col min="15" max="15" width="35.28515625" customWidth="true"/>
+    <col min="16" max="16" width="35.28515625" customWidth="true"/>
+    <col min="17" max="17" width="35.28515625" customWidth="true"/>
+    <col min="18" max="18" width="35.28515625" customWidth="true"/>
+    <col min="19" max="19" width="33.85546875" customWidth="true"/>
+    <col min="20" max="20" width="33.85546875" customWidth="true"/>
+    <col min="21" max="21" width="33.85546875" customWidth="true"/>
+    <col min="22" max="22" width="33.85546875" customWidth="true"/>
+    <col min="23" max="23" width="33.85546875" customWidth="true"/>
+    <col min="24" max="24" width="33.85546875" customWidth="true"/>
+    <col min="25" max="25" width="33.85546875" customWidth="true"/>
+    <col min="26" max="26" width="33.85546875" customWidth="true"/>
+    <col min="27" max="27" width="33.85546875" customWidth="true"/>
+    <col min="28" max="28" width="40.7109375" customWidth="true"/>
+    <col min="29" max="29" width="40.7109375" customWidth="true"/>
+    <col min="30" max="30" width="40.7109375" customWidth="true"/>
+    <col min="31" max="31" width="40.7109375" customWidth="true"/>
+    <col min="32" max="32" width="40.7109375" customWidth="true"/>
+    <col min="33" max="33" width="40.7109375" customWidth="true"/>
+    <col min="34" max="34" width="40.7109375" customWidth="true"/>
+    <col min="35" max="35" width="40.7109375" customWidth="true"/>
+    <col min="36" max="36" width="40.7109375" customWidth="true"/>
+    <col min="37" max="37" width="34" customWidth="true"/>
+    <col min="38" max="38" width="34" customWidth="true"/>
+    <col min="39" max="39" width="34" customWidth="true"/>
+    <col min="40" max="40" width="34" customWidth="true"/>
+    <col min="41" max="41" width="34" customWidth="true"/>
+    <col min="42" max="42" width="34" customWidth="true"/>
+    <col min="43" max="43" width="34" customWidth="true"/>
+    <col min="44" max="44" width="34" customWidth="true"/>
+    <col min="45" max="45" width="34" customWidth="true"/>
+    <col min="46" max="46" width="32.5703125" customWidth="true"/>
+    <col min="47" max="47" width="32.5703125" customWidth="true"/>
+    <col min="48" max="48" width="32.5703125" customWidth="true"/>
+    <col min="49" max="49" width="32.5703125" customWidth="true"/>
+    <col min="50" max="50" width="32.5703125" customWidth="true"/>
+    <col min="51" max="51" width="32.5703125" customWidth="true"/>
+    <col min="52" max="52" width="32.5703125" customWidth="true"/>
+    <col min="53" max="53" width="32.5703125" customWidth="true"/>
+    <col min="54" max="54" width="32.5703125" customWidth="true"/>
+    <col min="55" max="55" width="39.42578125" customWidth="true"/>
+    <col min="56" max="56" width="39.42578125" customWidth="true"/>
+    <col min="57" max="57" width="39.42578125" customWidth="true"/>
+    <col min="58" max="58" width="39.42578125" customWidth="true"/>
+    <col min="59" max="59" width="39.42578125" customWidth="true"/>
+    <col min="60" max="60" width="39.42578125" customWidth="true"/>
+    <col min="61" max="61" width="39.42578125" customWidth="true"/>
+    <col min="62" max="62" width="39.42578125" customWidth="true"/>
+    <col min="63" max="63" width="39.42578125" customWidth="true"/>
+    <col min="64" max="64" width="34.28515625" customWidth="true"/>
+    <col min="65" max="65" width="34.28515625" customWidth="true"/>
+    <col min="66" max="66" width="34.28515625" customWidth="true"/>
+    <col min="67" max="67" width="34.28515625" customWidth="true"/>
+    <col min="68" max="68" width="34.28515625" customWidth="true"/>
+    <col min="69" max="69" width="34.28515625" customWidth="true"/>
+    <col min="70" max="70" width="34.28515625" customWidth="true"/>
+    <col min="71" max="71" width="34.28515625" customWidth="true"/>
+    <col min="72" max="72" width="34.28515625" customWidth="true"/>
+    <col min="73" max="73" width="33" customWidth="true"/>
+    <col min="74" max="74" width="33" customWidth="true"/>
+    <col min="75" max="75" width="33" customWidth="true"/>
+    <col min="76" max="76" width="33" customWidth="true"/>
+    <col min="77" max="77" width="33" customWidth="true"/>
+    <col min="78" max="78" width="33" customWidth="true"/>
+    <col min="79" max="79" width="33" customWidth="true"/>
+    <col min="80" max="80" width="33" customWidth="true"/>
+    <col min="81" max="81" width="33" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC1" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1.6237767391887217</v>
+        <v>11.634590843881821</v>
       </c>
       <c r="B2" s="0">
-        <v>4.2813323987193934</v>
+        <v>27.072740820907711</v>
       </c>
       <c r="C2" s="0">
-        <v>6.9519279617756053</v>
+        <v>62.996052494743694</v>
       </c>
       <c r="D2" s="0">
-        <v>11.28837891684689</v>
+        <v>146.58665911120858</v>
       </c>
       <c r="E2" s="0">
-        <v>18.329807108324356</v>
+        <v>341.0951603860982</v>
       </c>
       <c r="F2" s="0">
-        <v>29.763514416313178</v>
+        <v>793.70052598409995</v>
       </c>
       <c r="G2" s="0">
-        <v>48.329302385717526</v>
+        <v>1846.8761744797571</v>
       </c>
       <c r="H2" s="0">
-        <v>78.475997035146108</v>
+        <v>4297.5297258771334</v>
       </c>
       <c r="I2" s="0">
-        <v>127.42749857031335</v>
+        <v>10000</v>
       </c>
       <c r="J2" s="0">
-        <v>206.913808111479</v>
+        <v>30.079015206912501</v>
       </c>
       <c r="K2" s="0">
-        <v>335.98182862837808</v>
+        <v>30.422088712404285</v>
       </c>
       <c r="L2" s="0">
-        <v>545.55947811685201</v>
+        <v>31.043625141567016</v>
       </c>
       <c r="M2" s="0">
-        <v>885.86679041008233</v>
+        <v>31.755227228565275</v>
       </c>
       <c r="N2" s="0">
-        <v>1438.449888287663</v>
+        <v>32.428557734136987</v>
       </c>
       <c r="O2" s="0">
-        <v>2335.7214690901214</v>
+        <v>32.903258090634466</v>
       </c>
       <c r="P2" s="0">
-        <v>3792.6901907322499</v>
+        <v>33.381785691340404</v>
       </c>
       <c r="Q2" s="0">
-        <v>6158.4821106602612</v>
+        <v>33.580998906521238</v>
       </c>
       <c r="R2" s="0">
-        <v>10000</v>
+        <v>33.734050999881667</v>
       </c>
       <c r="S2" s="0">
-        <v>276.5</v>
+        <v>17.009938918450352</v>
       </c>
       <c r="T2" s="0">
-        <v>278</v>
+        <v>16.996839531732334</v>
       </c>
       <c r="U2" s="0">
-        <v>279</v>
+        <v>16.951793630314942</v>
       </c>
       <c r="V2" s="0">
+        <v>16.728834822176402</v>
+      </c>
+      <c r="W2" s="0">
+        <v>16.446216436992781</v>
+      </c>
+      <c r="X2" s="0">
+        <v>16.527536845421409</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>16.255637771021146</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>16.14890182423882</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>16.173075989171153</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>0.56550850489750326</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>0.55870061034967833</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>0.54606359769551227</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0.52680570357021572</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>0.50715226288587389</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>0.50230699950427649</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>0.48696130043270974</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>0.48089402787547203</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>0.47942881183252745</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>29.978481389574192</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>30.03462520402655</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>30.095305264928932</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>30.077333485706536</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>29.892327507092013</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>29.926160013064418</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>29.748851730604621</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>29.830938680254881</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>29.859102250174622</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>15.284982214890041</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>14.934090573367566</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>14.612118340817567</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>14.61846343033921</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>14.585641559389256</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>14.810844500449308</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>14.771573957440786</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>14.863963778439178</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>14.889168042310324</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>0.50986512679744334</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>0.49722913044260159</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>0.48552816501401491</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>0.48602923651081809</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>0.48793930669763952</v>
+      </c>
+      <c r="BH2" s="0">
+        <v>0.49491296223717168</v>
+      </c>
+      <c r="BI2" s="0">
+        <v>0.49654265956908472</v>
+      </c>
+      <c r="BJ2" s="0">
+        <v>0.49827341800268743</v>
+      </c>
+      <c r="BK2" s="0">
+        <v>0.49864754531336414</v>
+      </c>
+      <c r="BL2" s="0">
         <v>279.5</v>
       </c>
-      <c r="W2" s="0">
-        <v>281.5</v>
-      </c>
-      <c r="X2" s="0">
-        <v>284</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>289</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>292</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>295.5</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>298.5</v>
-      </c>
-      <c r="AC2" s="0">
+      <c r="BM2" s="0">
+        <v>284.5</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>291</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>296.5</v>
+      </c>
+      <c r="BP2" s="0">
         <v>299.5</v>
       </c>
-      <c r="AD2" s="0">
+      <c r="BQ2" s="0">
         <v>301.5</v>
       </c>
-      <c r="AE2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>303.5</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>304</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>304</v>
-      </c>
-      <c r="AI2" s="0">
+      <c r="BR2" s="0">
+        <v>304.5</v>
+      </c>
+      <c r="BS2" s="0">
+        <v>305</v>
+      </c>
+      <c r="BT2" s="0">
         <v>305.5</v>
       </c>
-      <c r="AJ2" s="0">
-        <v>305.5</v>
-      </c>
-      <c r="AK2" s="0">
-        <v>30.36174071537457</v>
-      </c>
-      <c r="AL2" s="0">
-        <v>30.217118441696297</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>30.214152952361268</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>30.087156590316606</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>30.123566930173613</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>30.335298176743532</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>30.804326395958707</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>31.07797579289662</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>31.626008798227705</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>31.985087727933593</v>
-      </c>
-      <c r="AU2" s="0">
-        <v>32.440065306370776</v>
-      </c>
-      <c r="AV2" s="0">
-        <v>32.851222204557267</v>
-      </c>
-      <c r="AW2" s="0">
-        <v>33.132479849099155</v>
-      </c>
-      <c r="AX2" s="0">
-        <v>33.274669867652982</v>
-      </c>
-      <c r="AY2" s="0">
-        <v>33.470158468311787</v>
-      </c>
-      <c r="AZ2" s="0">
-        <v>33.446575612527845</v>
-      </c>
-      <c r="BA2" s="0">
-        <v>33.730079569873368</v>
-      </c>
-      <c r="BB2" s="0">
-        <v>33.734050999881667</v>
+      <c r="BU2" s="0">
+        <v>264.5</v>
+      </c>
+      <c r="BV2" s="0">
+        <v>266.5</v>
+      </c>
+      <c r="BW2" s="0">
+        <v>268</v>
+      </c>
+      <c r="BX2" s="0">
+        <v>269.5</v>
+      </c>
+      <c r="BY2" s="0">
+        <v>269</v>
+      </c>
+      <c r="BZ2" s="0">
+        <v>269</v>
+      </c>
+      <c r="CA2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="CB2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="CC2" s="0">
+        <v>268.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/liqudi_heat_sweep_results.xlsx
+++ b/Graphs/liqudi_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
   <si>
     <t>Liquid heat transfer coefficient (W/K m^2)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>11.634590843881821</v>
       </c>
       <c r="B2" s="0">
-        <v>30.079015206912501</v>
+        <v>29.831634924547476</v>
       </c>
       <c r="C2" s="0">
-        <v>17.009938918450352</v>
+        <v>16.77035820586234</v>
       </c>
       <c r="D2" s="0">
-        <v>0.56550850489750326</v>
+        <v>0.56216691603659175</v>
       </c>
       <c r="E2" s="0">
-        <v>29.978481389574192</v>
+        <v>29.561514380455566</v>
       </c>
       <c r="F2" s="0">
-        <v>15.284982214890041</v>
+        <v>14.988922401733872</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50986512679744334</v>
+        <v>0.5070417641270677</v>
       </c>
       <c r="H2" s="0">
-        <v>279.5</v>
+        <v>277.92553153124362</v>
       </c>
       <c r="I2" s="0">
-        <v>264.5</v>
+        <v>262.50856030781063</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>27.072740820907711</v>
       </c>
       <c r="B3" s="0">
-        <v>30.422088712404285</v>
+        <v>29.972035321394905</v>
       </c>
       <c r="C3" s="0">
-        <v>16.996839531732334</v>
+        <v>16.561317179833072</v>
       </c>
       <c r="D3" s="0">
-        <v>0.55870061034967833</v>
+        <v>0.55255897713463342</v>
       </c>
       <c r="E3" s="0">
-        <v>30.03462520402655</v>
+        <v>29.587399983523124</v>
       </c>
       <c r="F3" s="0">
-        <v>14.934090573367566</v>
+        <v>14.702132219871187</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49722913044260159</v>
+        <v>0.49690517680021334</v>
       </c>
       <c r="H3" s="0">
-        <v>284.5</v>
+        <v>281.96892857101147</v>
       </c>
       <c r="I3" s="0">
-        <v>266.5</v>
+        <v>264.48704707272367</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>62.996052494743694</v>
       </c>
       <c r="B4" s="0">
-        <v>31.043625141567016</v>
+        <v>30.560282556303289</v>
       </c>
       <c r="C4" s="0">
-        <v>16.951793630314942</v>
+        <v>16.532404964067737</v>
       </c>
       <c r="D4" s="0">
-        <v>0.54606359769551227</v>
+        <v>0.54097683598340307</v>
       </c>
       <c r="E4" s="0">
-        <v>30.095305264928932</v>
+        <v>29.556833147628854</v>
       </c>
       <c r="F4" s="0">
-        <v>14.612118340817567</v>
+        <v>14.239183684070868</v>
       </c>
       <c r="G4" s="0">
-        <v>0.48552816501401491</v>
+        <v>0.48175606679341365</v>
       </c>
       <c r="H4" s="0">
-        <v>291</v>
+        <v>288.41795033111913</v>
       </c>
       <c r="I4" s="0">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>146.58665911120858</v>
       </c>
       <c r="B5" s="0">
-        <v>31.755227228565275</v>
+        <v>31.28384981176665</v>
       </c>
       <c r="C5" s="0">
-        <v>16.728834822176402</v>
+        <v>16.36691220972488</v>
       </c>
       <c r="D5" s="0">
-        <v>0.52680570357021572</v>
+        <v>0.52317449125359461</v>
       </c>
       <c r="E5" s="0">
-        <v>30.077333485706536</v>
+        <v>29.444516203785664</v>
       </c>
       <c r="F5" s="0">
-        <v>14.61846343033921</v>
+        <v>14.223352846221534</v>
       </c>
       <c r="G5" s="0">
-        <v>0.48602923651081809</v>
+        <v>0.48305608921476678</v>
       </c>
       <c r="H5" s="0">
-        <v>296.5</v>
+        <v>294</v>
       </c>
       <c r="I5" s="0">
-        <v>269.5</v>
+        <v>266.37946531598072</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>341.0951603860982</v>
       </c>
       <c r="B6" s="0">
-        <v>32.428557734136987</v>
+        <v>32.090165802622941</v>
       </c>
       <c r="C6" s="0">
-        <v>16.446216436992781</v>
+        <v>16.259890173305632</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50715226288587389</v>
+        <v>0.50669386606835798</v>
       </c>
       <c r="E6" s="0">
-        <v>29.892327507092013</v>
+        <v>29.37831650694978</v>
       </c>
       <c r="F6" s="0">
-        <v>14.585641559389256</v>
+        <v>14.355390579492411</v>
       </c>
       <c r="G6" s="0">
-        <v>0.48793930669763952</v>
+        <v>0.48863897889099528</v>
       </c>
       <c r="H6" s="0">
-        <v>299.5</v>
+        <v>298.51030057880655</v>
       </c>
       <c r="I6" s="0">
-        <v>269</v>
+        <v>266.49719907237807</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>793.70052598409995</v>
       </c>
       <c r="B7" s="0">
-        <v>32.903258090634466</v>
+        <v>32.649814004987867</v>
       </c>
       <c r="C7" s="0">
-        <v>16.527536845421409</v>
+        <v>16.302775637972886</v>
       </c>
       <c r="D7" s="0">
-        <v>0.50230699950427649</v>
+        <v>0.49932215955295589</v>
       </c>
       <c r="E7" s="0">
-        <v>29.926160013064418</v>
+        <v>29.338398491322451</v>
       </c>
       <c r="F7" s="0">
-        <v>14.810844500449308</v>
+        <v>14.519159892981312</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49491296223717168</v>
+        <v>0.49488590514835734</v>
       </c>
       <c r="H7" s="0">
-        <v>301.5</v>
+        <v>298.56552624829965</v>
       </c>
       <c r="I7" s="0">
-        <v>269</v>
+        <v>266.06753678897422</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>1846.8761744797571</v>
       </c>
       <c r="B8" s="0">
-        <v>33.381785691340404</v>
+        <v>33.068802040914271</v>
       </c>
       <c r="C8" s="0">
-        <v>16.255637771021146</v>
+        <v>16.123453276632159</v>
       </c>
       <c r="D8" s="0">
-        <v>0.48696130043270974</v>
+        <v>0.48757294735634715</v>
       </c>
       <c r="E8" s="0">
-        <v>29.748851730604621</v>
+        <v>29.3528167279946</v>
       </c>
       <c r="F8" s="0">
-        <v>14.771573957440786</v>
+        <v>14.561380840966121</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49654265956908472</v>
+        <v>0.49608121005567846</v>
       </c>
       <c r="H8" s="0">
-        <v>304.5</v>
+        <v>302.5</v>
       </c>
       <c r="I8" s="0">
-        <v>268.5</v>
+        <v>265.92052038816712</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>4297.5297258771334</v>
       </c>
       <c r="B9" s="0">
-        <v>33.580998906521238</v>
+        <v>33.182609855255265</v>
       </c>
       <c r="C9" s="0">
-        <v>16.14890182423882</v>
+        <v>15.944136715839694</v>
       </c>
       <c r="D9" s="0">
-        <v>0.48089402787547203</v>
+        <v>0.48049676578753359</v>
       </c>
       <c r="E9" s="0">
-        <v>29.830938680254881</v>
+        <v>29.332295922129418</v>
       </c>
       <c r="F9" s="0">
-        <v>14.863963778439178</v>
+        <v>14.614208585201702</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49827341800268743</v>
+        <v>0.49822927683530488</v>
       </c>
       <c r="H9" s="0">
-        <v>305</v>
+        <v>302.91498746270071</v>
       </c>
       <c r="I9" s="0">
-        <v>268.5</v>
+        <v>265.90000000000009</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>10000</v>
       </c>
       <c r="B10" s="0">
-        <v>33.734050999881667</v>
+        <v>33.151100490662976</v>
       </c>
       <c r="C10" s="0">
-        <v>16.173075989171153</v>
+        <v>15.80495628982203</v>
       </c>
       <c r="D10" s="0">
-        <v>0.47942881183252745</v>
+        <v>0.47675510181852043</v>
       </c>
       <c r="E10" s="0">
-        <v>29.859102250174622</v>
+        <v>29.336099060968252</v>
       </c>
       <c r="F10" s="0">
-        <v>14.889168042310324</v>
+        <v>14.672402156332046</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49864754531336414</v>
+        <v>0.50014837098275655</v>
       </c>
       <c r="H10" s="0">
-        <v>305.5</v>
+        <v>302.5</v>
       </c>
       <c r="I10" s="0">
-        <v>268.5</v>
+        <v>266.05468782553243</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/liqudi_heat_sweep_results.xlsx
+++ b/Graphs/liqudi_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
   <si>
     <t>Liquid heat transfer coefficient (W/K m^2)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="34.53125" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,31 +133,31 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>11.634590843881821</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="B2" s="0">
-        <v>29.831634924547476</v>
+        <v>29.83941035114626</v>
       </c>
       <c r="C2" s="0">
-        <v>16.77035820586234</v>
+        <v>16.758382069362174</v>
       </c>
       <c r="D2" s="0">
-        <v>0.56216691603659175</v>
+        <v>0.56161907598547478</v>
       </c>
       <c r="E2" s="0">
-        <v>29.561514380455566</v>
+        <v>29.228449112999968</v>
       </c>
       <c r="F2" s="0">
-        <v>14.988922401733872</v>
+        <v>15.131505834978267</v>
       </c>
       <c r="G2" s="0">
-        <v>0.5070417641270677</v>
+        <v>0.51769786951330954</v>
       </c>
       <c r="H2" s="0">
-        <v>277.92553153124362</v>
+        <v>274.43353531482688</v>
       </c>
       <c r="I2" s="0">
-        <v>262.50856030781063</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>27.072740820907711</v>
       </c>
       <c r="B3" s="0">
-        <v>29.972035321394905</v>
+        <v>29.989960858749949</v>
       </c>
       <c r="C3" s="0">
-        <v>16.561317179833072</v>
+        <v>16.548898190685652</v>
       </c>
       <c r="D3" s="0">
-        <v>0.55255897713463342</v>
+        <v>0.55181459784590892</v>
       </c>
       <c r="E3" s="0">
-        <v>29.587399983523124</v>
+        <v>29.513236591883761</v>
       </c>
       <c r="F3" s="0">
-        <v>14.702132219871187</v>
+        <v>14.813476399604436</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49690517680021334</v>
+        <v>0.50192652891476475</v>
       </c>
       <c r="H3" s="0">
-        <v>281.96892857101147</v>
+        <v>282.02709438847683</v>
       </c>
       <c r="I3" s="0">
-        <v>264.48704707272367</v>
+        <v>262.04779040850838</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>62.996052494743694</v>
       </c>
       <c r="B4" s="0">
-        <v>30.560282556303289</v>
+        <v>30.564149935970448</v>
       </c>
       <c r="C4" s="0">
-        <v>16.532404964067737</v>
+        <v>16.532168955486963</v>
       </c>
       <c r="D4" s="0">
-        <v>0.54097683598340307</v>
+        <v>0.54090066270845383</v>
       </c>
       <c r="E4" s="0">
-        <v>29.556833147628854</v>
+        <v>29.40158622729048</v>
       </c>
       <c r="F4" s="0">
-        <v>14.239183684070868</v>
+        <v>14.368306642302969</v>
       </c>
       <c r="G4" s="0">
-        <v>0.48175606679341365</v>
+        <v>0.48869154647739182</v>
       </c>
       <c r="H4" s="0">
-        <v>288.41795033111913</v>
+        <v>288.5399461849965</v>
       </c>
       <c r="I4" s="0">
-        <v>266</v>
+        <v>263.01951790030517</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>146.58665911120858</v>
       </c>
       <c r="B5" s="0">
-        <v>31.28384981176665</v>
+        <v>31.283842798327811</v>
       </c>
       <c r="C5" s="0">
-        <v>16.36691220972488</v>
+        <v>16.458654452944192</v>
       </c>
       <c r="D5" s="0">
-        <v>0.52317449125359461</v>
+        <v>0.52610718443528115</v>
       </c>
       <c r="E5" s="0">
-        <v>29.444516203785664</v>
+        <v>29.340692733758598</v>
       </c>
       <c r="F5" s="0">
-        <v>14.223352846221534</v>
+        <v>14.218490330106553</v>
       </c>
       <c r="G5" s="0">
-        <v>0.48305608921476678</v>
+        <v>0.48459968069353548</v>
       </c>
       <c r="H5" s="0">
-        <v>294</v>
+        <v>294.08106127578679</v>
       </c>
       <c r="I5" s="0">
-        <v>266.37946531598072</v>
+        <v>264.00103261726315</v>
       </c>
     </row>
     <row r="6">
@@ -252,57 +252,57 @@
         <v>341.0951603860982</v>
       </c>
       <c r="B6" s="0">
-        <v>32.090165802622941</v>
+        <v>32.081925873007442</v>
       </c>
       <c r="C6" s="0">
-        <v>16.259890173305632</v>
+        <v>16.303315006108924</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50669386606835798</v>
+        <v>0.50817756610509268</v>
       </c>
       <c r="E6" s="0">
-        <v>29.37831650694978</v>
+        <v>29.325423688680111</v>
       </c>
       <c r="F6" s="0">
-        <v>14.355390579492411</v>
+        <v>14.281707224692193</v>
       </c>
       <c r="G6" s="0">
-        <v>0.48863897889099528</v>
+        <v>0.48700770281471045</v>
       </c>
       <c r="H6" s="0">
-        <v>298.51030057880655</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="I6" s="0">
-        <v>266.49719907237807</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>793.70052598409995</v>
+        <v>1846.8761744797571</v>
       </c>
       <c r="B7" s="0">
-        <v>32.649814004987867</v>
+        <v>33.073224370308608</v>
       </c>
       <c r="C7" s="0">
-        <v>16.302775637972886</v>
+        <v>16.137529864086666</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49932215955295589</v>
+        <v>0.48793337121898783</v>
       </c>
       <c r="E7" s="0">
-        <v>29.338398491322451</v>
+        <v>29.324274755279376</v>
       </c>
       <c r="F7" s="0">
-        <v>14.519159892981312</v>
+        <v>14.609866755244587</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49488590514835734</v>
+        <v>0.4982174964996981</v>
       </c>
       <c r="H7" s="0">
-        <v>298.56552624829965</v>
+        <v>302.5</v>
       </c>
       <c r="I7" s="0">
-        <v>266.06753678897422</v>
+        <v>265.14541675164469</v>
       </c>
     </row>
     <row r="8">

--- a/Graphs/liqudi_heat_sweep_results.xlsx
+++ b/Graphs/liqudi_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
   <si>
     <t>Liquid heat transfer coefficient (W/K m^2)</t>
   </si>
@@ -136,86 +136,86 @@
         <v>5.0000000000000009</v>
       </c>
       <c r="B2" s="0">
-        <v>29.83941035114626</v>
+        <v>29.683532142041255</v>
       </c>
       <c r="C2" s="0">
-        <v>16.758382069362174</v>
+        <v>15.049120796496506</v>
       </c>
       <c r="D2" s="0">
-        <v>0.56161907598547478</v>
+        <v>0.50698551386956403</v>
       </c>
       <c r="E2" s="0">
-        <v>29.228449112999968</v>
+        <v>28.700135474528203</v>
       </c>
       <c r="F2" s="0">
-        <v>15.131505834978267</v>
+        <v>14.713082108650907</v>
       </c>
       <c r="G2" s="0">
-        <v>0.51769786951330954</v>
+        <v>0.51264852466320188</v>
       </c>
       <c r="H2" s="0">
-        <v>274.43353531482688</v>
+        <v>168.5192247236337</v>
       </c>
       <c r="I2" s="0">
-        <v>256</v>
+        <v>141.44528657571303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>27.072740820907711</v>
+        <v>11.634590843881821</v>
       </c>
       <c r="B3" s="0">
-        <v>29.989960858749949</v>
+        <v>29.578958968492731</v>
       </c>
       <c r="C3" s="0">
-        <v>16.548898190685652</v>
+        <v>15.241062305355154</v>
       </c>
       <c r="D3" s="0">
-        <v>0.55181459784590892</v>
+        <v>0.51526702889002318</v>
       </c>
       <c r="E3" s="0">
-        <v>29.513236591883761</v>
+        <v>28.882973011626877</v>
       </c>
       <c r="F3" s="0">
-        <v>14.813476399604436</v>
+        <v>14.654968911248814</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50192652891476475</v>
+        <v>0.50739128916366871</v>
       </c>
       <c r="H3" s="0">
-        <v>282.02709438847683</v>
+        <v>169.5</v>
       </c>
       <c r="I3" s="0">
-        <v>262.04779040850838</v>
+        <v>144.99338490576503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>62.996052494743694</v>
+        <v>27.072740820907711</v>
       </c>
       <c r="B4" s="0">
-        <v>30.564149935970448</v>
+        <v>29.581058183074031</v>
       </c>
       <c r="C4" s="0">
-        <v>16.532168955486963</v>
+        <v>15.648022485336169</v>
       </c>
       <c r="D4" s="0">
-        <v>0.54090066270845383</v>
+        <v>0.52898792154398999</v>
       </c>
       <c r="E4" s="0">
-        <v>29.40158622729048</v>
+        <v>28.96203704949253</v>
       </c>
       <c r="F4" s="0">
-        <v>14.368306642302969</v>
+        <v>15.117760677617918</v>
       </c>
       <c r="G4" s="0">
-        <v>0.48869154647739182</v>
+        <v>0.52198540633669999</v>
       </c>
       <c r="H4" s="0">
-        <v>288.5399461849965</v>
+        <v>174</v>
       </c>
       <c r="I4" s="0">
-        <v>263.01951790030517</v>
+        <v>148.48766137602857</v>
       </c>
     </row>
     <row r="5">

--- a/Graphs/liqudi_heat_sweep_results.xlsx
+++ b/Graphs/liqudi_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="126" uniqueCount="9">
   <si>
     <t>Liquid heat transfer coefficient (W/K m^2)</t>
   </si>

--- a/Graphs/liqudi_heat_sweep_results.xlsx
+++ b/Graphs/liqudi_heat_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="126" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>Liquid heat transfer coefficient (W/K m^2)</t>
   </si>
@@ -85,21 +85,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.53125" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="38.28515625" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>5.0000000000000009</v>
       </c>
       <c r="B2" s="0">
-        <v>29.683532142041255</v>
+        <v>30.179673540489471</v>
       </c>
       <c r="C2" s="0">
-        <v>15.049120796496506</v>
+        <v>17.215507045561271</v>
       </c>
       <c r="D2" s="0">
-        <v>0.50698551386956403</v>
+        <v>0.57043383926816527</v>
       </c>
       <c r="E2" s="0">
-        <v>28.700135474528203</v>
+        <v>30.394899460365341</v>
       </c>
       <c r="F2" s="0">
-        <v>14.713082108650907</v>
+        <v>15.692372000969701</v>
       </c>
       <c r="G2" s="0">
-        <v>0.51264852466320188</v>
+        <v>0.51628306984309669</v>
       </c>
       <c r="H2" s="0">
-        <v>168.5192247236337</v>
+        <v>250.5</v>
       </c>
       <c r="I2" s="0">
-        <v>141.44528657571303</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>11.634590843881821</v>
       </c>
       <c r="B3" s="0">
-        <v>29.578958968492731</v>
+        <v>30.021247996715374</v>
       </c>
       <c r="C3" s="0">
-        <v>15.241062305355154</v>
+        <v>16.579257674660987</v>
       </c>
       <c r="D3" s="0">
-        <v>0.51526702889002318</v>
+        <v>0.55225078172882502</v>
       </c>
       <c r="E3" s="0">
-        <v>28.882973011626877</v>
+        <v>30.374156025721611</v>
       </c>
       <c r="F3" s="0">
-        <v>14.654968911248814</v>
+        <v>15.587012368886162</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50739128916366871</v>
+        <v>0.51316692900657657</v>
       </c>
       <c r="H3" s="0">
-        <v>169.5</v>
+        <v>253</v>
       </c>
       <c r="I3" s="0">
-        <v>144.99338490576503</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="4">
@@ -194,202 +194,231 @@
         <v>27.072740820907711</v>
       </c>
       <c r="B4" s="0">
-        <v>29.581058183074031</v>
+        <v>30.069068593556313</v>
       </c>
       <c r="C4" s="0">
-        <v>15.648022485336169</v>
+        <v>16.740066044795331</v>
       </c>
       <c r="D4" s="0">
-        <v>0.52898792154398999</v>
+        <v>0.55672047149417403</v>
       </c>
       <c r="E4" s="0">
-        <v>28.96203704949253</v>
+        <v>30.395210733354517</v>
       </c>
       <c r="F4" s="0">
-        <v>15.117760677617918</v>
+        <v>15.48869175998254</v>
       </c>
       <c r="G4" s="0">
-        <v>0.52198540633669999</v>
+        <v>0.50957671903836665</v>
       </c>
       <c r="H4" s="0">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="I4" s="0">
-        <v>148.48766137602857</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>146.58665911120858</v>
+        <v>62.996052494743694</v>
       </c>
       <c r="B5" s="0">
-        <v>31.283842798327811</v>
+        <v>30.666689450756824</v>
       </c>
       <c r="C5" s="0">
-        <v>16.458654452944192</v>
+        <v>16.600890774500229</v>
       </c>
       <c r="D5" s="0">
-        <v>0.52610718443528115</v>
+        <v>0.54133299263219081</v>
       </c>
       <c r="E5" s="0">
-        <v>29.340692733758598</v>
+        <v>30.496558041074255</v>
       </c>
       <c r="F5" s="0">
-        <v>14.218490330106553</v>
+        <v>15.313092339930229</v>
       </c>
       <c r="G5" s="0">
-        <v>0.48459968069353548</v>
+        <v>0.5021252667040591</v>
       </c>
       <c r="H5" s="0">
-        <v>294.08106127578679</v>
+        <v>264.5</v>
       </c>
       <c r="I5" s="0">
-        <v>264.00103261726315</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>341.0951603860982</v>
+        <v>146.58665911120858</v>
       </c>
       <c r="B6" s="0">
-        <v>32.081925873007442</v>
+        <v>31.123482292602787</v>
       </c>
       <c r="C6" s="0">
-        <v>16.303315006108924</v>
+        <v>16.430139261483301</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50817756610509268</v>
+        <v>0.52790170158396132</v>
       </c>
       <c r="E6" s="0">
-        <v>29.325423688680111</v>
+        <v>30.647591905061674</v>
       </c>
       <c r="F6" s="0">
-        <v>14.281707224692193</v>
+        <v>15.495582331669256</v>
       </c>
       <c r="G6" s="0">
-        <v>0.48700770281471045</v>
+        <v>0.5056052162163529</v>
       </c>
       <c r="H6" s="0">
-        <v>298.60000000000002</v>
+        <v>273.5</v>
       </c>
       <c r="I6" s="0">
-        <v>265</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1846.8761744797571</v>
+        <v>341.0951603860982</v>
       </c>
       <c r="B7" s="0">
-        <v>33.073224370308608</v>
+        <v>32.196681891628174</v>
       </c>
       <c r="C7" s="0">
-        <v>16.137529864086666</v>
+        <v>15.979328701720835</v>
       </c>
       <c r="D7" s="0">
-        <v>0.48793337121898783</v>
+        <v>0.49630358667101665</v>
       </c>
       <c r="E7" s="0">
-        <v>29.324274755279376</v>
+        <v>30.447477612071182</v>
       </c>
       <c r="F7" s="0">
-        <v>14.609866755244587</v>
+        <v>15.337604639024235</v>
       </c>
       <c r="G7" s="0">
-        <v>0.4982174964996981</v>
+        <v>0.50373974601244143</v>
       </c>
       <c r="H7" s="0">
-        <v>302.5</v>
+        <v>279.5</v>
       </c>
       <c r="I7" s="0">
-        <v>265.14541675164469</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1846.8761744797571</v>
+        <v>793.70052598409995</v>
       </c>
       <c r="B8" s="0">
-        <v>33.068802040914271</v>
+        <v>33.031641912782234</v>
       </c>
       <c r="C8" s="0">
-        <v>16.123453276632159</v>
+        <v>16.114518792252042</v>
       </c>
       <c r="D8" s="0">
-        <v>0.48757294735634715</v>
+        <v>0.48785097739922567</v>
       </c>
       <c r="E8" s="0">
-        <v>29.3528167279946</v>
+        <v>30.559716787176384</v>
       </c>
       <c r="F8" s="0">
-        <v>14.561380840966121</v>
+        <v>15.432375384389644</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49608121005567846</v>
+        <v>0.50499078547957787</v>
       </c>
       <c r="H8" s="0">
-        <v>302.5</v>
+        <v>280.5</v>
       </c>
       <c r="I8" s="0">
-        <v>265.92052038816712</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>4297.5297258771334</v>
+        <v>1846.8761744797571</v>
       </c>
       <c r="B9" s="0">
-        <v>33.182609855255265</v>
+        <v>33.705030501525876</v>
       </c>
       <c r="C9" s="0">
-        <v>15.944136715839694</v>
+        <v>16.594457000429692</v>
       </c>
       <c r="D9" s="0">
-        <v>0.48049676578753359</v>
+        <v>0.49234362804325121</v>
       </c>
       <c r="E9" s="0">
-        <v>29.332295922129418</v>
+        <v>30.630157504122423</v>
       </c>
       <c r="F9" s="0">
-        <v>14.614208585201702</v>
+        <v>15.510412247143156</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49822927683530488</v>
+        <v>0.50637716260700438</v>
       </c>
       <c r="H9" s="0">
-        <v>302.91498746270071</v>
+        <v>282.5</v>
       </c>
       <c r="I9" s="0">
-        <v>265.90000000000009</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
+        <v>4297.5297258771334</v>
+      </c>
+      <c r="B10" s="0">
+        <v>34.60562677229575</v>
+      </c>
+      <c r="C10" s="0">
+        <v>17.089840484459792</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.49384571465532356</v>
+      </c>
+      <c r="E10" s="0">
+        <v>30.250093152793269</v>
+      </c>
+      <c r="F10" s="0">
+        <v>15.223770771335023</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.50326359969999868</v>
+      </c>
+      <c r="H10" s="0">
+        <v>283.5</v>
+      </c>
+      <c r="I10" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>10000</v>
       </c>
-      <c r="B10" s="0">
-        <v>33.151100490662976</v>
-      </c>
-      <c r="C10" s="0">
-        <v>15.80495628982203</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.47675510181852043</v>
-      </c>
-      <c r="E10" s="0">
-        <v>29.336099060968252</v>
-      </c>
-      <c r="F10" s="0">
-        <v>14.672402156332046</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0.50014837098275655</v>
-      </c>
-      <c r="H10" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="I10" s="0">
-        <v>266.05468782553243</v>
+      <c r="B11" s="0">
+        <v>34.684074600268715</v>
+      </c>
+      <c r="C11" s="0">
+        <v>17.136054651913547</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.49406117503220875</v>
+      </c>
+      <c r="E11" s="0">
+        <v>30.519625930071122</v>
+      </c>
+      <c r="F11" s="0">
+        <v>15.49744021544568</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.50778604727838372</v>
+      </c>
+      <c r="H11" s="0">
+        <v>283.5</v>
+      </c>
+      <c r="I11" s="0">
+        <v>248.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/liqudi_heat_sweep_results.xlsx
+++ b/Graphs/liqudi_heat_sweep_results.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,292 +133,234 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>5.0000000000000009</v>
+        <v>27.072740820907711</v>
       </c>
       <c r="B2" s="0">
-        <v>30.179673540489471</v>
+        <v>30.67227943703687</v>
       </c>
       <c r="C2" s="0">
-        <v>17.215507045561271</v>
+        <v>16.552657953388799</v>
       </c>
       <c r="D2" s="0">
-        <v>0.57043383926816527</v>
+        <v>0.53966181376795275</v>
       </c>
       <c r="E2" s="0">
-        <v>30.394899460365341</v>
+        <v>31.052211141724381</v>
       </c>
       <c r="F2" s="0">
-        <v>15.692372000969701</v>
+        <v>15.249633993949574</v>
       </c>
       <c r="G2" s="0">
-        <v>0.51628306984309669</v>
+        <v>0.49109655748343389</v>
       </c>
       <c r="H2" s="0">
-        <v>250.5</v>
+        <v>300.5</v>
       </c>
       <c r="I2" s="0">
-        <v>235</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>11.634590843881821</v>
+        <v>62.996052494743694</v>
       </c>
       <c r="B3" s="0">
-        <v>30.021247996715374</v>
+        <v>31.194183312414889</v>
       </c>
       <c r="C3" s="0">
-        <v>16.579257674660987</v>
+        <v>16.425528436251771</v>
       </c>
       <c r="D3" s="0">
-        <v>0.55225078172882502</v>
+        <v>0.52655741205811979</v>
       </c>
       <c r="E3" s="0">
-        <v>30.374156025721611</v>
+        <v>31.194759123077159</v>
       </c>
       <c r="F3" s="0">
-        <v>15.587012368886162</v>
+        <v>15.511817417519092</v>
       </c>
       <c r="G3" s="0">
-        <v>0.51316692900657657</v>
+        <v>0.49725716285604554</v>
       </c>
       <c r="H3" s="0">
-        <v>253</v>
+        <v>310.5</v>
       </c>
       <c r="I3" s="0">
-        <v>238.5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>27.072740820907711</v>
+        <v>146.58665911120858</v>
       </c>
       <c r="B4" s="0">
-        <v>30.069068593556313</v>
+        <v>32.279656993476472</v>
       </c>
       <c r="C4" s="0">
-        <v>16.740066044795331</v>
+        <v>17.029235061601131</v>
       </c>
       <c r="D4" s="0">
-        <v>0.55672047149417403</v>
+        <v>0.52755316034004451</v>
       </c>
       <c r="E4" s="0">
-        <v>30.395210733354517</v>
+        <v>31.136487312148716</v>
       </c>
       <c r="F4" s="0">
-        <v>15.48869175998254</v>
+        <v>15.532916534409845</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50957671903836665</v>
+        <v>0.49886541081817121</v>
       </c>
       <c r="H4" s="0">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="I4" s="0">
-        <v>242.5</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>62.996052494743694</v>
+        <v>341.0951603860982</v>
       </c>
       <c r="B5" s="0">
-        <v>30.666689450756824</v>
+        <v>33.73984170388735</v>
       </c>
       <c r="C5" s="0">
-        <v>16.600890774500229</v>
+        <v>16.742020920232552</v>
       </c>
       <c r="D5" s="0">
-        <v>0.54133299263219081</v>
+        <v>0.49620923142338313</v>
       </c>
       <c r="E5" s="0">
-        <v>30.496558041074255</v>
+        <v>30.73849674413789</v>
       </c>
       <c r="F5" s="0">
-        <v>15.313092339930229</v>
+        <v>15.313638593335126</v>
       </c>
       <c r="G5" s="0">
-        <v>0.5021252667040591</v>
+        <v>0.4981908751362597</v>
       </c>
       <c r="H5" s="0">
-        <v>264.5</v>
+        <v>334</v>
       </c>
       <c r="I5" s="0">
-        <v>245</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>146.58665911120858</v>
+        <v>793.70052598409995</v>
       </c>
       <c r="B6" s="0">
-        <v>31.123482292602787</v>
+        <v>34.628225084617206</v>
       </c>
       <c r="C6" s="0">
-        <v>16.430139261483301</v>
+        <v>15.921980079392522</v>
       </c>
       <c r="D6" s="0">
-        <v>0.52790170158396132</v>
+        <v>0.45979775285870761</v>
       </c>
       <c r="E6" s="0">
-        <v>30.647591905061674</v>
+        <v>30.916067441011741</v>
       </c>
       <c r="F6" s="0">
-        <v>15.495582331669256</v>
+        <v>15.496181343950811</v>
       </c>
       <c r="G6" s="0">
-        <v>0.5056052162163529</v>
+        <v>0.50123390931002876</v>
       </c>
       <c r="H6" s="0">
-        <v>273.5</v>
+        <v>338</v>
       </c>
       <c r="I6" s="0">
-        <v>246.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>341.0951603860982</v>
+        <v>1846.8761744797571</v>
       </c>
       <c r="B7" s="0">
-        <v>32.196681891628174</v>
+        <v>35.371700076108183</v>
       </c>
       <c r="C7" s="0">
-        <v>15.979328701720835</v>
+        <v>16.380806494203803</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49630358667101665</v>
+        <v>0.46310486798649014</v>
       </c>
       <c r="E7" s="0">
-        <v>30.447477612071182</v>
+        <v>30.990849793208902</v>
       </c>
       <c r="F7" s="0">
-        <v>15.337604639024235</v>
+        <v>15.597543378551785</v>
       </c>
       <c r="G7" s="0">
-        <v>0.50373974601244143</v>
+        <v>0.50329511719196907</v>
       </c>
       <c r="H7" s="0">
-        <v>279.5</v>
+        <v>339.5</v>
       </c>
       <c r="I7" s="0">
-        <v>246.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>793.70052598409995</v>
+        <v>4297.5297258771334</v>
       </c>
       <c r="B8" s="0">
-        <v>33.031641912782234</v>
+        <v>35.467773838239502</v>
       </c>
       <c r="C8" s="0">
-        <v>16.114518792252042</v>
+        <v>16.476290487829221</v>
       </c>
       <c r="D8" s="0">
-        <v>0.48785097739922567</v>
+        <v>0.46454256088848028</v>
       </c>
       <c r="E8" s="0">
-        <v>30.559716787176384</v>
+        <v>30.675298520912854</v>
       </c>
       <c r="F8" s="0">
-        <v>15.432375384389644</v>
+        <v>15.326776353901167</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50499078547957787</v>
+        <v>0.49964554846800113</v>
       </c>
       <c r="H8" s="0">
-        <v>280.5</v>
+        <v>339.5</v>
       </c>
       <c r="I8" s="0">
-        <v>247</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1846.8761744797571</v>
+        <v>10000</v>
       </c>
       <c r="B9" s="0">
-        <v>33.705030501525876</v>
+        <v>35.555882871625201</v>
       </c>
       <c r="C9" s="0">
-        <v>16.594457000429692</v>
+        <v>16.599339815635737</v>
       </c>
       <c r="D9" s="0">
-        <v>0.49234362804325121</v>
+        <v>0.46685213458396707</v>
       </c>
       <c r="E9" s="0">
-        <v>30.630157504122423</v>
+        <v>30.720679901694076</v>
       </c>
       <c r="F9" s="0">
-        <v>15.510412247143156</v>
+        <v>15.363976493822959</v>
       </c>
       <c r="G9" s="0">
-        <v>0.50637716260700438</v>
+        <v>0.50011837443010887</v>
       </c>
       <c r="H9" s="0">
-        <v>282.5</v>
+        <v>339</v>
       </c>
       <c r="I9" s="0">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>4297.5297258771334</v>
-      </c>
-      <c r="B10" s="0">
-        <v>34.60562677229575</v>
-      </c>
-      <c r="C10" s="0">
-        <v>17.089840484459792</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.49384571465532356</v>
-      </c>
-      <c r="E10" s="0">
-        <v>30.250093152793269</v>
-      </c>
-      <c r="F10" s="0">
-        <v>15.223770771335023</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0.50326359969999868</v>
-      </c>
-      <c r="H10" s="0">
-        <v>283.5</v>
-      </c>
-      <c r="I10" s="0">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>10000</v>
-      </c>
-      <c r="B11" s="0">
-        <v>34.684074600268715</v>
-      </c>
-      <c r="C11" s="0">
-        <v>17.136054651913547</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.49406117503220875</v>
-      </c>
-      <c r="E11" s="0">
-        <v>30.519625930071122</v>
-      </c>
-      <c r="F11" s="0">
-        <v>15.49744021544568</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0.50778604727838372</v>
-      </c>
-      <c r="H11" s="0">
-        <v>283.5</v>
-      </c>
-      <c r="I11" s="0">
-        <v>248.5</v>
+        <v>301.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/liqudi_heat_sweep_results.xlsx
+++ b/Graphs/liqudi_heat_sweep_results.xlsx
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="34.53125" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
